--- a/4027ccom/db_project/universitario.xlsx
+++ b/4027ccom/db_project/universitario.xlsx
@@ -1406,9 +1406,6 @@
   </si>
   <si>
     <t>Mariano Montoya</t>
-  </si>
-  <si>
-    <t>Aula del Teatro Universitario de Murcia</t>
   </si>
   <si>
     <t>Coproducción con el Aula del Teatro Universitario de Murcia cuyos actores visitantes interpretan la obra</t>
@@ -3904,6 +3901,9 @@
   </si>
   <si>
     <t>Jorge Luis Torres</t>
+  </si>
+  <si>
+    <t>Teatro Universitario de Murcia</t>
   </si>
 </sst>
 </file>
@@ -4404,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C305" sqref="C305"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I222" sqref="I222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4423,1022 +4423,1022 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>487</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>491</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>498</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>502</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="22" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>505</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>513</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>516</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>530</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>534</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>537</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>539</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>542</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>546</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>553</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>557</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>562</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>568</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>572</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>583</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>588</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="66" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>595</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>600</v>
-      </c>
       <c r="F27" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>595</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="187" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>609</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="D29" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>614</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>617</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>622</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>629</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>634</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -5446,2453 +5446,2453 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>637</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>641</v>
-      </c>
       <c r="F37" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="J37" s="9" t="s">
         <v>642</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>648</v>
-      </c>
       <c r="G38" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>652</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>655</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>657</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>595</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>669</v>
-      </c>
       <c r="G43" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>671</v>
-      </c>
       <c r="G44" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>675</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>684</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>687</v>
-      </c>
       <c r="E47" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>690</v>
-      </c>
       <c r="E48" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>693</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>696</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>699</v>
-      </c>
       <c r="E51" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>702</v>
-      </c>
       <c r="E52" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>705</v>
-      </c>
       <c r="E53" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>708</v>
-      </c>
       <c r="F54" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>717</v>
-      </c>
       <c r="E55" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>721</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>726</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>730</v>
-      </c>
       <c r="F58" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>735</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>738</v>
-      </c>
       <c r="F60" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>742</v>
-      </c>
       <c r="F61" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>743</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>748</v>
-      </c>
       <c r="G62" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>752</v>
-      </c>
       <c r="F63" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>757</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>761</v>
-      </c>
       <c r="F66" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>764</v>
-      </c>
       <c r="F67" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>767</v>
-      </c>
       <c r="F68" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>772</v>
-      </c>
       <c r="F69" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>785</v>
-      </c>
       <c r="E70" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>789</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>794</v>
-      </c>
       <c r="G72" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>799</v>
-      </c>
       <c r="F73" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>801</v>
-      </c>
       <c r="E74" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>804</v>
-      </c>
       <c r="F75" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A76" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D76" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>735</v>
-      </c>
       <c r="F76" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>809</v>
-      </c>
       <c r="F77" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="J77" s="7" t="s">
         <v>810</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>738</v>
-      </c>
       <c r="F78" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J78" s="7"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>814</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J79" s="7"/>
     </row>
     <row r="80" spans="1:10" ht="232.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>816</v>
-      </c>
       <c r="E80" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="E81" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="F81" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>823</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>827</v>
-      </c>
       <c r="F82" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="H82" s="6" t="s">
         <v>822</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>823</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>829</v>
-      </c>
       <c r="E83" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>832</v>
-      </c>
       <c r="E84" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>835</v>
-      </c>
       <c r="F85" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>838</v>
-      </c>
       <c r="F86" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>841</v>
-      </c>
       <c r="E87" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J87" s="7"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>844</v>
-      </c>
       <c r="F88" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J88" s="7"/>
     </row>
     <row r="89" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>847</v>
-      </c>
       <c r="F89" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>851</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>855</v>
-      </c>
       <c r="F91" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D92" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>863</v>
-      </c>
       <c r="F92" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>866</v>
-      </c>
       <c r="E93" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>871</v>
-      </c>
       <c r="F94" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J94" s="7"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>874</v>
-      </c>
       <c r="F95" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>878</v>
-      </c>
       <c r="F96" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="F97" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>883</v>
-      </c>
       <c r="G97" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="F98" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>887</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>888</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J98" s="7"/>
     </row>
     <row r="99" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>890</v>
-      </c>
       <c r="E99" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J99" s="7"/>
     </row>
     <row r="100" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>838</v>
-      </c>
       <c r="F100" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="255" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>895</v>
-      </c>
       <c r="E101" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J101" s="7"/>
     </row>
     <row r="102" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>898</v>
-      </c>
       <c r="F102" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="F103" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>904</v>
-      </c>
       <c r="E104" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>1149</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>1150</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>907</v>
-      </c>
       <c r="F105" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J105" s="7"/>
     </row>
     <row r="106" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>909</v>
-      </c>
       <c r="E106" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J106" s="7"/>
     </row>
     <row r="107" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>913</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>914</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>918</v>
-      </c>
       <c r="F108" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>921</v>
-      </c>
       <c r="D109" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>530</v>
-      </c>
       <c r="F109" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>925</v>
-      </c>
       <c r="E110" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>930</v>
-      </c>
       <c r="F111" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="110" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>935</v>
-      </c>
       <c r="F112" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="E113" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>938</v>
-      </c>
       <c r="H113" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>940</v>
-      </c>
       <c r="E114" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J114" s="7"/>
     </row>
     <row r="115" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="F115" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="J115" s="7" t="s">
         <v>945</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="E116" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="F116" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>949</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>950</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="E117" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="I117" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="G117" s="3" t="s">
+      <c r="J117" s="7" t="s">
         <v>1125</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="E118" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>957</v>
-      </c>
       <c r="F118" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -7900,85 +7900,85 @@
     </row>
     <row r="119" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>959</v>
-      </c>
       <c r="E119" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>964</v>
-      </c>
       <c r="F120" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>968</v>
-      </c>
       <c r="E121" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -7986,96 +7986,96 @@
     </row>
     <row r="122" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A122" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>970</v>
-      </c>
       <c r="E122" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>975</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>976</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C124" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>979</v>
-      </c>
       <c r="E124" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J124" s="7"/>
     </row>
     <row r="125" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>1</v>
@@ -8084,30 +8084,30 @@
         <v>2</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G125" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="J125" s="7" t="s">
         <v>976</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>3</v>
@@ -8116,26 +8116,26 @@
         <v>4</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J126" s="7"/>
     </row>
     <row r="127" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A127" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>5</v>
@@ -8147,23 +8147,23 @@
         <v>7</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J127" s="7"/>
     </row>
     <row r="128" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A128" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>8</v>
@@ -8175,20 +8175,20 @@
         <v>10</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J128" s="7"/>
     </row>
     <row r="129" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>11</v>
@@ -8197,26 +8197,26 @@
         <v>12</v>
       </c>
       <c r="D129" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>874</v>
-      </c>
       <c r="F129" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J129" s="7"/>
     </row>
     <row r="130" spans="1:10" ht="198" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>14</v>
@@ -8228,17 +8228,17 @@
         <v>16</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H130" s="6"/>
       <c r="I130" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>17</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>18</v>
@@ -8258,23 +8258,23 @@
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J131" s="7"/>
     </row>
     <row r="132" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>18</v>
@@ -8286,21 +8286,21 @@
         <v>22</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>18</v>
@@ -8324,7 +8324,7 @@
         <v>28</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J133" s="7" t="s">
         <v>41</v>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="134" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>18</v>
@@ -8347,14 +8347,14 @@
         <v>44</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J134" s="7" t="s">
         <v>46</v>
@@ -8362,7 +8362,7 @@
     </row>
     <row r="135" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>51</v>
@@ -8377,14 +8377,14 @@
         <v>49</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J135" s="7" t="s">
         <v>50</v>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="136" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>51</v>
@@ -8404,25 +8404,25 @@
         <v>53</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>54</v>
@@ -8434,23 +8434,23 @@
         <v>56</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J137" s="7"/>
     </row>
     <row r="138" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>54</v>
@@ -8465,20 +8465,20 @@
         <v>59</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J138" s="7"/>
     </row>
     <row r="139" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>54</v>
@@ -8493,20 +8493,20 @@
         <v>59</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J139" s="7"/>
     </row>
     <row r="140" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>54</v>
@@ -8521,20 +8521,20 @@
         <v>64</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J140" s="7"/>
     </row>
     <row r="141" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>65</v>
@@ -8556,7 +8556,7 @@
         <v>96</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J141" s="7" t="s">
         <v>97</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="142" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>65</v>
@@ -8579,7 +8579,7 @@
         <v>100</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>101</v>
@@ -8592,7 +8592,7 @@
     </row>
     <row r="143" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>65</v>
@@ -8604,23 +8604,23 @@
         <v>103</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H143" s="6"/>
       <c r="I143" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J143" s="7"/>
     </row>
     <row r="144" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>65</v>
@@ -8635,22 +8635,22 @@
         <v>106</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J144" s="7"/>
     </row>
     <row r="145" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>65</v>
@@ -8662,23 +8662,23 @@
         <v>108</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J145" s="7"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>65</v>
@@ -8693,20 +8693,20 @@
         <v>111</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J146" s="7"/>
     </row>
     <row r="147" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>65</v>
@@ -8721,14 +8721,14 @@
         <v>114</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J147" s="7" t="s">
         <v>115</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="148" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>116</v>
@@ -8751,14 +8751,14 @@
         <v>119</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J148" s="7" t="s">
         <v>125</v>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="149" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>116</v>
@@ -8781,14 +8781,14 @@
         <v>127</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J149" s="7" t="s">
         <v>128</v>
@@ -8796,22 +8796,22 @@
     </row>
     <row r="150" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>1139</v>
-      </c>
       <c r="E150" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>13</v>
@@ -8820,7 +8820,7 @@
         <v>13</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J150" s="7" t="s">
         <v>129</v>
@@ -8828,22 +8828,22 @@
     </row>
     <row r="151" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>13</v>
@@ -8852,7 +8852,7 @@
         <v>13</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J151" s="7" t="s">
         <v>129</v>
@@ -8860,22 +8860,22 @@
     </row>
     <row r="152" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>13</v>
@@ -8884,7 +8884,7 @@
         <v>13</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J152" s="7" t="s">
         <v>129</v>
@@ -8892,22 +8892,22 @@
     </row>
     <row r="153" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>13</v>
@@ -8916,7 +8916,7 @@
         <v>13</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>129</v>
@@ -8924,22 +8924,22 @@
     </row>
     <row r="154" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>13</v>
@@ -8948,7 +8948,7 @@
         <v>13</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J154" s="7" t="s">
         <v>129</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>116</v>
@@ -8971,14 +8971,14 @@
         <v>114</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J155" s="7" t="s">
         <v>131</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="156" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A156" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>132</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="157" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>132</v>
@@ -9046,7 +9046,7 @@
     </row>
     <row r="158" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>132</v>
@@ -9076,7 +9076,7 @@
     </row>
     <row r="159" spans="1:10" ht="121" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>132</v>
@@ -9091,14 +9091,14 @@
         <v>44</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J159" s="7" t="s">
         <v>148</v>
@@ -9106,7 +9106,7 @@
     </row>
     <row r="160" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>132</v>
@@ -9136,7 +9136,7 @@
     </row>
     <row r="161" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>155</v>
@@ -9162,7 +9162,7 @@
     </row>
     <row r="162" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>161</v>
@@ -9174,17 +9174,17 @@
         <v>162</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J162" s="7" t="s">
         <v>220</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>161</v>
@@ -9207,20 +9207,20 @@
         <v>44</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G163" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H163" s="6"/>
       <c r="I163" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J163" s="7"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>166</v>
@@ -9229,26 +9229,26 @@
         <v>167</v>
       </c>
       <c r="D164" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>949</v>
-      </c>
       <c r="F164" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J164" s="7"/>
     </row>
     <row r="165" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>166</v>
@@ -9260,17 +9260,17 @@
         <v>169</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J165" s="7" t="s">
         <v>170</v>
@@ -9278,7 +9278,7 @@
     </row>
     <row r="166" spans="1:10" ht="121" x14ac:dyDescent="0.15">
       <c r="A166" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>166</v>
@@ -9290,10 +9290,10 @@
         <v>172</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>13</v>
@@ -9302,7 +9302,7 @@
         <v>13</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J166" s="7" t="s">
         <v>173</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="167" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>174</v>
@@ -9325,14 +9325,14 @@
         <v>182</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J167" s="7" t="s">
         <v>183</v>
@@ -9340,7 +9340,7 @@
     </row>
     <row r="168" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>174</v>
@@ -9362,13 +9362,13 @@
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J168" s="7"/>
     </row>
     <row r="169" spans="1:10" ht="88" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>187</v>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="H169" s="3"/>
       <c r="I169" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J169" s="7" t="s">
         <v>192</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="170" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>187</v>
@@ -9413,20 +9413,20 @@
         <v>195</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H170" s="3"/>
       <c r="I170" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J170" s="7"/>
     </row>
     <row r="171" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>187</v>
@@ -9458,7 +9458,7 @@
     </row>
     <row r="172" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>187</v>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="H172" s="3"/>
       <c r="I172" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J172" s="7" t="s">
         <v>204</v>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="173" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>187</v>
@@ -9503,7 +9503,7 @@
         <v>207</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>208</v>
@@ -9516,7 +9516,7 @@
     </row>
     <row r="174" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>209</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="175" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>209</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="176" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>209</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="177" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>209</v>
@@ -9628,7 +9628,7 @@
     </row>
     <row r="178" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A178" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>209</v>
@@ -9654,7 +9654,7 @@
     </row>
     <row r="179" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A179" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>209</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>209</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>209</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>209</v>
@@ -9756,7 +9756,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>209</v>
@@ -9782,7 +9782,7 @@
     </row>
     <row r="184" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A184" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>209</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>209</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="186" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>209</v>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="187" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>209</v>
@@ -9869,10 +9869,10 @@
         <v>289</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>290</v>
@@ -9882,7 +9882,7 @@
       </c>
       <c r="H187" s="3"/>
       <c r="I187" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J187" s="7" t="s">
         <v>291</v>
@@ -9890,7 +9890,7 @@
     </row>
     <row r="188" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>209</v>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J188" s="7" t="s">
         <v>294</v>
@@ -9920,7 +9920,7 @@
     </row>
     <row r="189" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>209</v>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J189" s="7" t="s">
         <v>298</v>
@@ -9950,7 +9950,7 @@
     </row>
     <row r="190" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>209</v>
@@ -9972,7 +9972,7 @@
       </c>
       <c r="H190" s="3"/>
       <c r="I190" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J190" s="7" t="s">
         <v>298</v>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="191" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A191" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>209</v>
@@ -10010,7 +10010,7 @@
     </row>
     <row r="192" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A192" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>209</v>
@@ -10040,7 +10040,7 @@
     </row>
     <row r="193" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A193" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>209</v>
@@ -10070,7 +10070,7 @@
     </row>
     <row r="194" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>209</v>
@@ -10082,17 +10082,17 @@
         <v>310</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J194" s="7" t="s">
         <v>298</v>
@@ -10100,7 +10100,7 @@
     </row>
     <row r="195" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>312</v>
@@ -10112,17 +10112,17 @@
         <v>314</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H195" s="3"/>
       <c r="I195" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J195" s="7" t="s">
         <v>315</v>
@@ -10130,7 +10130,7 @@
     </row>
     <row r="196" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>316</v>
@@ -10145,151 +10145,151 @@
         <v>319</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H196" s="3"/>
       <c r="I196" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J196" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C197" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="E197" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E197" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="F197" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H197" s="3"/>
       <c r="I197" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C198" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>464</v>
-      </c>
       <c r="E198" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J198" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C199" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="E199" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="F199" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A200" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="D200" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E200" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D200" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="F200" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H200" s="3"/>
       <c r="I200" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J200" s="7"/>
     </row>
     <row r="201" spans="1:10" ht="187" x14ac:dyDescent="0.15">
       <c r="A201" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C201" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="E201" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="E201" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="F201" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>13</v>
@@ -10299,42 +10299,42 @@
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A203" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>320</v>
@@ -10352,10 +10352,10 @@
     </row>
     <row r="204" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>323</v>
@@ -10382,10 +10382,10 @@
     </row>
     <row r="205" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>328</v>
@@ -10406,10 +10406,10 @@
     </row>
     <row r="206" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>332</v>
@@ -10432,10 +10432,10 @@
     </row>
     <row r="207" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>336</v>
@@ -10462,10 +10462,10 @@
     </row>
     <row r="208" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>341</v>
@@ -10488,10 +10488,10 @@
     </row>
     <row r="209" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>346</v>
@@ -10514,10 +10514,10 @@
     </row>
     <row r="210" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>350</v>
@@ -10542,10 +10542,10 @@
     </row>
     <row r="211" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>355</v>
@@ -10554,7 +10554,7 @@
         <v>356</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>357</v>
@@ -10568,10 +10568,10 @@
     </row>
     <row r="212" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>391</v>
@@ -10594,10 +10594,10 @@
     </row>
     <row r="213" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>396</v>
@@ -10620,10 +10620,10 @@
     </row>
     <row r="214" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>399</v>
@@ -10646,10 +10646,10 @@
     </row>
     <row r="215" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>404</v>
@@ -10672,10 +10672,10 @@
     </row>
     <row r="216" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>407</v>
@@ -10698,10 +10698,10 @@
     </row>
     <row r="217" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>410</v>
@@ -10724,10 +10724,10 @@
     </row>
     <row r="218" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>414</v>
@@ -10750,10 +10750,10 @@
     </row>
     <row r="219" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>419</v>
@@ -10774,10 +10774,10 @@
     </row>
     <row r="220" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A220" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>422</v>
@@ -10798,7 +10798,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>426</v>
@@ -10813,14 +10813,14 @@
         <v>429</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H221" s="3"/>
       <c r="I221" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J221" s="7" t="s">
         <v>430</v>
@@ -10828,7 +10828,7 @@
     </row>
     <row r="222" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>426</v>
@@ -10840,7 +10840,7 @@
         <v>432</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>433</v>
@@ -10850,27 +10850,27 @@
       </c>
       <c r="H222" s="3"/>
       <c r="I222" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J222" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="J222" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C223" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D223" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D223" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="E223" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>26</v>
@@ -10883,54 +10883,54 @@
         <v>142</v>
       </c>
       <c r="J223" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C224" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="E224" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="F224" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F224" s="3" t="s">
+      <c r="G224" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="G224" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="H224" s="3"/>
       <c r="I224" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="J224" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="J224" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C225" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D225" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D225" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="E225" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>311</v>
@@ -10945,27 +10945,27 @@
         <v>142</v>
       </c>
       <c r="J225" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C226" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D226" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="E226" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="F226" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>142</v>
@@ -10975,45 +10975,45 @@
         <v>142</v>
       </c>
       <c r="J226" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B227" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C227" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C227" s="6" t="s">
-        <v>453</v>
-      </c>
       <c r="D227" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G227" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H227" s="6"/>
       <c r="I227" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J227" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A228" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>228</v>
@@ -11040,10 +11040,10 @@
     </row>
     <row r="229" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A229" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>233</v>
@@ -11055,7 +11055,7 @@
         <v>235</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
@@ -11066,10 +11066,10 @@
     </row>
     <row r="230" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A230" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>237</v>
@@ -11081,7 +11081,7 @@
         <v>239</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
@@ -11092,19 +11092,19 @@
     </row>
     <row r="231" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A231" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C231" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="D231" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="E231" s="3" t="s">
         <v>982</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>983</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>199</v>
@@ -11118,22 +11118,22 @@
     </row>
     <row r="232" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C232" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="E232" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="E232" s="3" t="s">
-        <v>986</v>
-      </c>
       <c r="F232" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
@@ -11144,16 +11144,16 @@
     </row>
     <row r="233" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C233" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D233" s="3" t="s">
         <v>987</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>988</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>253</v>
@@ -11168,49 +11168,49 @@
     </row>
     <row r="234" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C234" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="E234" s="3" t="s">
         <v>990</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>991</v>
       </c>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
@@ -11220,29 +11220,29 @@
     </row>
     <row r="236" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C236" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G236" s="3" t="s">
         <v>993</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G236" s="3" t="s">
-        <v>994</v>
       </c>
       <c r="H236" s="3"/>
       <c r="I236" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J236" s="7" t="s">
         <v>0</v>
@@ -11250,191 +11250,191 @@
     </row>
     <row r="237" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>774</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H237" s="3"/>
       <c r="I237" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J237" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="D238" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>779</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H238" s="3"/>
       <c r="I238" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J238" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A239" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H239" s="3"/>
       <c r="I239" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J239" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A240" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D240" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="E240" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="E240" s="3" t="s">
-        <v>918</v>
-      </c>
       <c r="F240" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H240" s="3"/>
       <c r="I240" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J240" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A241" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B241" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C241" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C241" s="10" t="s">
-        <v>578</v>
-      </c>
       <c r="D241" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A242" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B242" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C242" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C242" s="10" t="s">
-        <v>578</v>
-      </c>
       <c r="D242" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>287</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A243" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B243" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C243" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C243" s="10" t="s">
-        <v>578</v>
-      </c>
       <c r="D243" s="10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F243" s="10" t="s">
         <v>199</v>
@@ -11443,67 +11443,67 @@
       <c r="H243" s="10"/>
       <c r="I243" s="10"/>
       <c r="J243" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A244" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B244" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="C244" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="D244" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E244" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F244" s="3" t="s">
         <v>1187</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>1188</v>
       </c>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A245" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B245" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="C245" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="D245" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E245" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="E245" s="3" t="s">
-        <v>1186</v>
-      </c>
       <c r="F245" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="66" x14ac:dyDescent="0.15">
       <c r="A246" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>358</v>
@@ -11512,17 +11512,17 @@
         <v>359</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H246" s="3"/>
       <c r="I246" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J246" s="7" t="s">
         <v>360</v>
@@ -11530,7 +11530,7 @@
     </row>
     <row r="247" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A247" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>361</v>
@@ -11542,13 +11542,13 @@
         <v>363</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H247" s="6"/>
       <c r="I247" s="6" t="s">
@@ -11560,7 +11560,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>361</v>
@@ -11572,23 +11572,23 @@
         <v>367</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G248" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H248" s="3"/>
       <c r="I248" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J248" s="7"/>
     </row>
     <row r="249" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A249" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>361</v>
@@ -11618,7 +11618,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>361</v>
@@ -11642,7 +11642,7 @@
     </row>
     <row r="251" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A251" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>361</v>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="252" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A252" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>377</v>
@@ -11675,13 +11675,13 @@
         <v>376</v>
       </c>
       <c r="D252" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E252" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="E252" s="3" t="s">
-        <v>608</v>
-      </c>
       <c r="F252" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>13</v>
@@ -11690,7 +11690,7 @@
         <v>13</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>379</v>
@@ -11698,7 +11698,7 @@
     </row>
     <row r="253" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>377</v>
@@ -11710,10 +11710,10 @@
         <v>367</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>13</v>
@@ -11722,15 +11722,15 @@
         <v>13</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J253" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>377</v>
@@ -11748,19 +11748,19 @@
         <v>383</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H254" s="3" t="s">
         <v>384</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J254" s="7"/>
     </row>
     <row r="255" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>377</v>
@@ -11775,12 +11775,12 @@
         <v>387</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J255" s="7" t="s">
         <v>388</v>
@@ -11788,7 +11788,7 @@
     </row>
     <row r="256" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>377</v>
@@ -11797,13 +11797,13 @@
         <v>389</v>
       </c>
       <c r="D256" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E256" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E256" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="F256" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>13</v>
@@ -11812,7 +11812,7 @@
         <v>13</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J256" s="7" t="s">
         <v>388</v>
@@ -11820,7 +11820,7 @@
     </row>
     <row r="257" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>69</v>
@@ -11835,7 +11835,7 @@
         <v>182</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G257" s="3" t="s">
         <v>13</v>
@@ -11844,7 +11844,7 @@
         <v>13</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J257" s="7" t="s">
         <v>72</v>
@@ -11852,7 +11852,7 @@
     </row>
     <row r="258" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>73</v>
@@ -11872,7 +11872,7 @@
     </row>
     <row r="259" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A259" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>73</v>
@@ -11881,7 +11881,7 @@
         <v>76</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>77</v>
@@ -11896,7 +11896,7 @@
         <v>13</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J259" s="7" t="s">
         <v>78</v>
@@ -11904,7 +11904,7 @@
     </row>
     <row r="260" spans="1:10" ht="110" x14ac:dyDescent="0.15">
       <c r="A260" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>73</v>
@@ -11916,10 +11916,10 @@
         <v>80</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>326</v>
@@ -11928,7 +11928,7 @@
         <v>81</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J260" s="7" t="s">
         <v>82</v>
@@ -11936,7 +11936,7 @@
     </row>
     <row r="261" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A261" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>83</v>
@@ -11945,13 +11945,13 @@
         <v>84</v>
       </c>
       <c r="D261" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E261" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="E261" s="3" t="s">
-        <v>789</v>
-      </c>
       <c r="F261" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>13</v>
@@ -11960,7 +11960,7 @@
         <v>13</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J261" s="7" t="s">
         <v>85</v>
@@ -11968,7 +11968,7 @@
     </row>
     <row r="262" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A262" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>86</v>
@@ -11980,10 +11980,10 @@
         <v>88</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>13</v>
@@ -11992,7 +11992,7 @@
         <v>13</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J262" s="7" t="s">
         <v>89</v>
@@ -12000,7 +12000,7 @@
     </row>
     <row r="263" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A263" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>86</v>
@@ -12024,7 +12024,7 @@
         <v>13</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J263" s="7" t="s">
         <v>91</v>
@@ -12032,7 +12032,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>86</v>
@@ -12044,10 +12044,10 @@
         <v>53</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>13</v>
@@ -12056,7 +12056,7 @@
         <v>13</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J264" s="7" t="s">
         <v>93</v>
@@ -12064,7 +12064,7 @@
     </row>
     <row r="265" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A265" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>94</v>
@@ -12073,13 +12073,13 @@
         <v>95</v>
       </c>
       <c r="D265" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="E265" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="E265" s="3" t="s">
-        <v>874</v>
-      </c>
       <c r="F265" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>13</v>
@@ -12088,7 +12088,7 @@
         <v>13</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J265" s="7" t="s">
         <v>93</v>
@@ -12096,31 +12096,31 @@
     </row>
     <row r="266" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A266" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>359</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>433</v>
       </c>
       <c r="G266" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H266" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="H266" s="3" t="s">
+      <c r="I266" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="I266" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="J266" s="7" t="s">
         <v>213</v>
@@ -12128,13 +12128,13 @@
     </row>
     <row r="267" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A267" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>113</v>
@@ -12143,7 +12143,7 @@
         <v>114</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>13</v>
@@ -12152,109 +12152,109 @@
         <v>13</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J267" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E268" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G268" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="F268" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>679</v>
-      </c>
       <c r="H268" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I268" s="3"/>
       <c r="J268" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C269" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D269" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="E269" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G269" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G269" s="3" t="s">
-        <v>860</v>
       </c>
       <c r="H269" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I269" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="J269" s="7" t="s">
         <v>860</v>
-      </c>
-      <c r="J269" s="7" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C270" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D270" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="E270" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E270" s="3" t="s">
-        <v>603</v>
-      </c>
       <c r="F270" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H270" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J270" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>29</v>
@@ -12286,7 +12286,7 @@
     </row>
     <row r="272" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>29</v>
@@ -12301,7 +12301,7 @@
         <v>38</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>33</v>
@@ -12318,22 +12318,22 @@
     </row>
     <row r="273" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A273" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C273" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="E273" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="E273" s="3" t="s">
-        <v>712</v>
-      </c>
       <c r="F273" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>13</v>
@@ -12342,47 +12342,47 @@
         <v>13</v>
       </c>
       <c r="I273" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="J273" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="J273" s="7" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C274" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D274" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D274" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="E274" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H274" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J274" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A275" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>29</v>
@@ -12408,7 +12408,7 @@
     </row>
     <row r="276" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A276" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>29</v>
@@ -12417,30 +12417,30 @@
         <v>124</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H276" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I276" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J276" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="44" x14ac:dyDescent="0.15">
       <c r="A277" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>177</v>
@@ -12458,13 +12458,13 @@
         <v>433</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H277" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I277" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J277" s="7" t="s">
         <v>181</v>
@@ -12472,7 +12472,7 @@
     </row>
     <row r="278" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A278" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>177</v>
@@ -12481,36 +12481,36 @@
         <v>282</v>
       </c>
       <c r="D278" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E278" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="E278" s="6" t="s">
+      <c r="F278" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G278" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H278" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="F278" s="6" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G278" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="H278" s="6" t="s">
+      <c r="I278" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J278" s="7" t="s">
         <v>1011</v>
-      </c>
-      <c r="I278" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="J278" s="7" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>283</v>
@@ -12519,16 +12519,16 @@
         <v>182</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H279" s="6" t="s">
         <v>284</v>
       </c>
       <c r="I279" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J279" s="7" t="s">
         <v>285</v>
@@ -12536,22 +12536,22 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A280" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B280" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="D280" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="C280" s="6" t="s">
-        <v>998</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>996</v>
-      </c>
       <c r="E280" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G280" s="6" t="s">
         <v>13</v>
@@ -12560,27 +12560,27 @@
         <v>13</v>
       </c>
       <c r="I280" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J280" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A281" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D281" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="E281" s="6" t="s">
         <v>999</v>
-      </c>
-      <c r="E281" s="6" t="s">
-        <v>1000</v>
       </c>
       <c r="F281" s="6" t="s">
         <v>383</v>
@@ -12589,33 +12589,33 @@
         <v>383</v>
       </c>
       <c r="H281" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I281" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="I281" s="6" t="s">
+      <c r="J281" s="7" t="s">
         <v>1002</v>
-      </c>
-      <c r="J281" s="7" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A282" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G282" s="6" t="s">
         <v>13</v>
@@ -12624,30 +12624,30 @@
         <v>13</v>
       </c>
       <c r="I282" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J282" s="7" t="s">
         <v>1006</v>
-      </c>
-      <c r="J282" s="7" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="283" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C283" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D283" s="6" t="s">
         <v>1013</v>
       </c>
-      <c r="D283" s="6" t="s">
+      <c r="E283" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="E283" s="6" t="s">
+      <c r="F283" s="6" t="s">
         <v>1015</v>
-      </c>
-      <c r="F283" s="6" t="s">
-        <v>1016</v>
       </c>
       <c r="G283" s="6" t="s">
         <v>13</v>
@@ -12656,94 +12656,94 @@
         <v>13</v>
       </c>
       <c r="I283" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J283" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C284" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D284" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="D284" s="6" t="s">
+      <c r="E284" s="6" t="s">
         <v>1019</v>
       </c>
-      <c r="E284" s="6" t="s">
-        <v>1020</v>
-      </c>
       <c r="F284" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H284" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I284" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J284" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B285" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C285" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="C285" s="6" t="s">
-        <v>1023</v>
-      </c>
       <c r="D285" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E285" s="6" t="s">
         <v>1032</v>
       </c>
-      <c r="E285" s="6" t="s">
+      <c r="F285" s="6" t="s">
         <v>1033</v>
       </c>
-      <c r="F285" s="6" t="s">
+      <c r="G285" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H285" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I285" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J285" s="7" t="s">
         <v>1034</v>
-      </c>
-      <c r="G285" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H285" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I285" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J285" s="7" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D286" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E286" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="E286" s="6" t="s">
-        <v>1025</v>
-      </c>
       <c r="F286" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G286" s="6" t="s">
         <v>13</v>
@@ -12752,616 +12752,616 @@
         <v>13</v>
       </c>
       <c r="I286" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J286" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D287" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E287" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="E287" s="6" t="s">
-        <v>1028</v>
-      </c>
       <c r="F287" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H287" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I287" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J287" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="22" x14ac:dyDescent="0.15">
       <c r="A288" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C288" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D288" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="D288" s="6" t="s">
+      <c r="E288" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="E288" s="6" t="s">
+      <c r="F288" s="6" t="s">
         <v>1038</v>
       </c>
-      <c r="F288" s="6" t="s">
+      <c r="G288" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="G288" s="6" t="s">
+      <c r="H288" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I288" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J288" s="7" t="s">
         <v>1040</v>
-      </c>
-      <c r="H288" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I288" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="J288" s="7" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B289" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C289" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="C289" s="6" t="s">
+      <c r="D289" s="6" t="s">
         <v>1043</v>
       </c>
-      <c r="D289" s="6" t="s">
+      <c r="E289" s="6" t="s">
         <v>1044</v>
       </c>
-      <c r="E289" s="6" t="s">
-        <v>1045</v>
-      </c>
       <c r="F289" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G289" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H289" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I289" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J289" s="7" t="s">
         <v>1046</v>
-      </c>
-      <c r="I289" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="J289" s="7" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C290" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D290" s="6" t="s">
         <v>1048</v>
       </c>
-      <c r="D290" s="6" t="s">
+      <c r="E290" s="6" t="s">
         <v>1049</v>
       </c>
-      <c r="E290" s="6" t="s">
-        <v>1050</v>
-      </c>
       <c r="F290" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H290" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I290" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J290" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C291" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D291" s="6" t="s">
         <v>1051</v>
       </c>
-      <c r="D291" s="6" t="s">
+      <c r="E291" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F291" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="G291" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="E291" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="F291" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="G291" s="6" t="s">
+      <c r="H291" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="H291" s="6" t="s">
+      <c r="I291" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J291" s="7" t="s">
         <v>1054</v>
-      </c>
-      <c r="I291" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="J291" s="7" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B292" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C292" s="6" t="s">
         <v>1057</v>
       </c>
-      <c r="C292" s="6" t="s">
+      <c r="D292" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="D292" s="6" t="s">
+      <c r="E292" s="6" t="s">
         <v>1059</v>
       </c>
-      <c r="E292" s="6" t="s">
+      <c r="F292" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="G292" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H292" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I292" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J292" s="7" t="s">
         <v>1060</v>
-      </c>
-      <c r="F292" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="G292" s="6" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H292" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I292" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="J292" s="7" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C293" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="F293" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="G293" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H293" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="D293" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="E293" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="F293" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="G293" s="6" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H293" s="6" t="s">
-        <v>1067</v>
-      </c>
       <c r="I293" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J293" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B294" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C294" s="6" t="s">
         <v>1068</v>
       </c>
-      <c r="C294" s="6" t="s">
+      <c r="D294" s="6" t="s">
         <v>1069</v>
       </c>
-      <c r="D294" s="6" t="s">
+      <c r="E294" s="6" t="s">
         <v>1070</v>
-      </c>
-      <c r="E294" s="6" t="s">
-        <v>1071</v>
       </c>
       <c r="F294" s="6" t="s">
         <v>383</v>
       </c>
       <c r="G294" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H294" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I294" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="H294" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I294" s="6" t="s">
+      <c r="J294" s="7" t="s">
         <v>1073</v>
-      </c>
-      <c r="J294" s="7" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="295" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A295" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C295" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D295" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="D295" s="6" t="s">
-        <v>1077</v>
-      </c>
       <c r="E295" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H295" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I295" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J295" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A296" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C296" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D296" s="6" t="s">
         <v>1078</v>
       </c>
-      <c r="D296" s="6" t="s">
+      <c r="E296" s="6" t="s">
         <v>1079</v>
       </c>
-      <c r="E296" s="6" t="s">
+      <c r="F296" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G296" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H296" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I296" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="F296" s="6" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G296" s="6" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H296" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I296" s="6" t="s">
+      <c r="J296" s="7" t="s">
         <v>1081</v>
-      </c>
-      <c r="J296" s="7" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="55" x14ac:dyDescent="0.15">
       <c r="A297" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C297" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D297" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="D297" s="6" t="s">
+      <c r="E297" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="E297" s="6" t="s">
+      <c r="F297" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G297" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H297" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I297" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J297" s="7" t="s">
         <v>1085</v>
-      </c>
-      <c r="F297" s="6" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G297" s="6" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H297" s="6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I297" s="6" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J297" s="7" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="155.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C298" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D298" s="6" t="s">
         <v>1087</v>
       </c>
-      <c r="D298" s="6" t="s">
+      <c r="E298" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="F298" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="G298" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="E298" s="6" t="s">
-        <v>949</v>
-      </c>
-      <c r="F298" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="G298" s="6" t="s">
+      <c r="H298" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I298" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J298" s="7" t="s">
         <v>1089</v>
-      </c>
-      <c r="H298" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I298" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="J298" s="7" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="299" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D299" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F299" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G299" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H299" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I299" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J299" s="7" t="s">
         <v>1098</v>
-      </c>
-      <c r="E299" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="F299" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="G299" s="6" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H299" s="6" t="s">
-        <v>1178</v>
-      </c>
-      <c r="I299" s="6" t="s">
-        <v>1073</v>
-      </c>
-      <c r="J299" s="7" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B300" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C300" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="C300" s="6" t="s">
+      <c r="D300" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E300" s="6" t="s">
         <v>1093</v>
       </c>
-      <c r="D300" s="6" t="s">
+      <c r="F300" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G300" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H300" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="E300" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F300" s="6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G300" s="6" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H300" s="6" t="s">
+      <c r="I300" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="I300" s="6" t="s">
-        <v>1097</v>
-      </c>
       <c r="J300" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C301" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D301" s="6" t="s">
         <v>1101</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>1102</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>182</v>
       </c>
       <c r="F301" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G301" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H301" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="G301" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H301" s="6" t="s">
-        <v>1104</v>
-      </c>
       <c r="I301" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J301" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C302" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D302" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="D302" s="6" t="s">
+      <c r="E302" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="E302" s="6" t="s">
+      <c r="F302" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G302" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="F302" s="6" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G302" s="6" t="s">
+      <c r="H302" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="H302" s="6" t="s">
-        <v>1109</v>
-      </c>
       <c r="I302" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J302" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C303" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D303" s="6" t="s">
         <v>1110</v>
-      </c>
-      <c r="D303" s="6" t="s">
-        <v>1111</v>
       </c>
       <c r="E303" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H303" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I303" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J303" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A304" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C304" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D304" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="D304" s="6" t="s">
+      <c r="E304" s="6" t="s">
         <v>1118</v>
       </c>
-      <c r="E304" s="6" t="s">
+      <c r="F304" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G304" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H304" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I304" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J304" s="7" t="s">
         <v>1119</v>
-      </c>
-      <c r="F304" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G304" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H304" s="6" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I304" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="J304" s="7" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A305" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C305" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D305" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="D305" s="6" t="s">
-        <v>1122</v>
-      </c>
       <c r="E305" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G305" s="6"/>
       <c r="H305" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I305" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J305" s="7" t="s">
         <v>1123</v>
-      </c>
-      <c r="I305" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="J305" s="7" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="163.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13480,7 +13480,7 @@
   <sheetData>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
